--- a/Features.xlsx
+++ b/Features.xlsx
@@ -320,13 +320,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,12 +652,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -770,12 +770,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -805,11 +805,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -922,7 +922,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
     </row>
